--- a/test/module_test/shape_factor_expected_value(test_shape_factor).xlsx
+++ b/test/module_test/shape_factor_expected_value(test_shape_factor).xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\heat_load_calc\src\test\test_shape_factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/module_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B470D60-8C88-4D5C-BE5E-A519363EDEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{4B470D60-8C88-4D5C-BE5E-A519363EDEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481BA8A9-59AE-49C6-BD28-1422A39B49A4}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10080" activeTab="3" xr2:uid="{D7606B39-A6BC-4A8B-9D07-29F5962C51C7}"/>
+    <workbookView xWindow="14355" yWindow="2595" windowWidth="14700" windowHeight="11175" firstSheet="1" activeTab="5" xr2:uid="{D7606B39-A6BC-4A8B-9D07-29F5962C51C7}"/>
   </bookViews>
   <sheets>
     <sheet name="case0" sheetId="1" r:id="rId1"/>
     <sheet name="case1" sheetId="2" r:id="rId2"/>
     <sheet name="case2" sheetId="3" r:id="rId3"/>
-    <sheet name="f_mrt" sheetId="4" r:id="rId4"/>
+    <sheet name="case3" sheetId="5" r:id="rId4"/>
+    <sheet name="case4" sheetId="6" r:id="rId5"/>
+    <sheet name="case5" sheetId="7" r:id="rId6"/>
+    <sheet name="f_mrt" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-8"/>
+  <calcPr calcId="191029" iterateDelta="1E-8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="22">
   <si>
     <t>北外壁</t>
     <rPh sb="0" eb="1">
@@ -210,6 +218,16 @@
   </si>
   <si>
     <t>f_mrt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面積比の方法</t>
+    <rPh sb="0" eb="3">
+      <t>メンセキヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -647,6 +665,114 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526572" cy="558102"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B939D40-D10D-4DD2-89C6-235AB6E9712F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5164455" y="1524000"/>
+          <a:ext cx="1526572" cy="558102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>D9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>となるように</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>H2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を収束計算で求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -711,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -751,7 +877,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -857,7 +983,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -999,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1013,16 +1139,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1032,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1056,7 +1182,7 @@
         <v>1.2329080574133122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1108,7 +1234,7 @@
         <v>5.6761671904990152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1257,7 @@
         <v>5.9210464343455822</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1280,7 @@
         <v>5.6761671904990152</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1303,7 @@
         <v>6.6301904840801784</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1326,7 @@
         <v>6.6301904840801784</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1232,16 +1358,16 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1251,7 +1377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1275,7 +1401,7 @@
         <v>1.3044639805131568</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1453,7 @@
         <v>5.7567659931595356</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1476,7 @@
         <v>6.0544771351990097</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1373,7 +1499,7 @@
         <v>5.7567659931595356</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1522,7 @@
         <v>7.0242417967165318</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1545,7 @@
         <v>7.0242417967165318</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1451,16 +1577,16 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1470,7 +1596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1494,7 +1620,7 @@
         <v>1.9999999999994775</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1672,7 @@
         <v>5.1422744905582043</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1695,7 @@
         <v>5.1422744905582043</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1718,7 @@
         <v>5.1422744905582043</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1741,7 @@
         <v>5.1422744905582043</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1635,10 +1761,10 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="2"/>
-        <v>51.42274490564246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>51.422744905642453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1663,25 +1789,668 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39E97D-A10B-450E-ADEB-93EFAE881D03}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.2329080574133122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D8" si="1">0.5*(1-SIGN(1-4*C3/$H$2)*SQRT(ABS(1-4*C3/$H$2)))</f>
+        <v>0.14614007327226608</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F8" si="2">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
+        <v>0.57983758297037535</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10450962615024634</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6761671904990152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14614007327226608</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>5.9210464343455822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10450962615024634</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>5.6761671904990152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24935030098634503</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6301904840801784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.24935030098634503</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6301904840801784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(B3:B8)</f>
+        <v>130</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>1.0000000008177148</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF688BC1-B0EA-4E0E-AAAA-C075D69C2B93}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F8" si="1">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
+        <v>5.9687114622550581</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D8" si="2">C4</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7381603757301853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9687114622550581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7381603757301853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4902493570152089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4902493570152089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(B3:B8)</f>
+        <v>130</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFBBD87-20F7-4892-8CAF-A4D35206F129}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C8" si="0">B3/$B$9</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D3" s="7">
+        <f>C3</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F8" si="1">E3/(1-E3*D3)*4*0.0000000567*($H$3+273.15)^3</f>
+        <v>0.58029139216368619</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D8" si="2">C4</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7381603757301853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9687114622550581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7381603757301853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4902493570152089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="2"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>6.4902493570152089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(B3:B8)</f>
+        <v>130</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="6">
+        <f>SUM(D3:D8)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D8A564-09A6-48C9-8016-F94CD09BF674}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +2473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1729,7 +2498,7 @@
         <v>0.1471180192940246</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1754,7 +2523,7 @@
         <v>0.10577519751536504</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1779,7 +2548,7 @@
         <v>0.1471180192940246</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -1804,7 +2573,7 @@
         <v>0.10577519751536504</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1829,7 +2598,7 @@
         <v>0.24710678319061036</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20</v>
       </c>
@@ -1854,7 +2623,7 @@
         <v>0.24710678319061036</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -1865,7 +2634,7 @@
         <v>5.6761671900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
@@ -1879,7 +2648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1896,7 +2665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>30</v>
       </c>
@@ -1921,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>30</v>
       </c>
@@ -1946,7 +2715,7 @@
         <v>0.12072960273548453</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1971,7 +2740,7 @@
         <v>0.16929751209921309</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>15</v>
       </c>
@@ -1987,7 +2756,7 @@
         <v>0.12072960273548453</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>30</v>
       </c>
@@ -2003,7 +2772,7 @@
         <v>0.29462164121490891</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>30</v>
       </c>
